--- a/MIT-15.071x/Unit8-Linear.Optimization/GoogleAdWords_LO_Sensitivity.xlsx
+++ b/MIT-15.071x/Unit8-Linear.Optimization/GoogleAdWords_LO_Sensitivity.xlsx
@@ -1,15 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\edx\MIT-15.071x\Unit8-Linear.Optimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5540" yWindow="80" windowWidth="19300" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="12150" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$35:$D$37</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$45:$B$47</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$50:$B$52</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$40</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$D$45:$D$47</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$D$50:$D$52</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -100,11 +140,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -112,17 +152,27 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,30 +384,38 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -685,23 +743,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -709,7 +767,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -720,11 +778,11 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -733,7 +791,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="16" thickBot="1">
+    <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -752,7 +810,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -771,7 +829,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -790,7 +848,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="16" thickBot="1">
+    <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -809,7 +867,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -820,11 +878,11 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -833,7 +891,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="16" thickBot="1">
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -852,7 +910,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
@@ -871,7 +929,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
@@ -890,7 +948,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="16" thickBot="1">
+    <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
@@ -909,7 +967,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -920,12 +978,12 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="16" thickBot="1">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -933,7 +991,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="16" thickBot="1">
+    <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -952,20 +1010,20 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="12">
-        <f>B11*B5</f>
+        <f t="shared" ref="B17:D19" si="0">B11*B5</f>
         <v>0.5</v>
       </c>
       <c r="C17" s="12">
-        <f>C11*C5</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="D17" s="13">
-        <f>D11*D5</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="E17" s="2"/>
@@ -974,20 +1032,20 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="2">
-        <f>B12*B6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <f>C12*C6</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="D18" s="7">
-        <f>D12*D6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E18" s="2"/>
@@ -996,20 +1054,20 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="16" thickBot="1">
+    <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="9">
-        <f>B13*B7</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="C19" s="9">
-        <f>C13*C7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D19" s="10">
-        <f>D13*D7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E19" s="2"/>
@@ -1018,7 +1076,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1029,7 +1087,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="16" thickBot="1">
+    <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1042,7 +1100,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="16" thickBot="1">
+    <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -1057,12 +1115,12 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1072,7 +1130,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
@@ -1087,7 +1145,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="16" thickBot="1">
+    <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>8</v>
       </c>
@@ -1102,7 +1160,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1113,11 +1171,11 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="16" thickBot="1">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1126,7 +1184,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="16" thickBot="1">
+    <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
@@ -1141,7 +1199,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -1156,7 +1214,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>2</v>
       </c>
@@ -1171,7 +1229,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="16" thickBot="1">
+    <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <v>3</v>
       </c>
@@ -1186,7 +1244,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1197,7 +1255,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="16" thickBot="1">
+    <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -1205,14 +1263,14 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="16" thickBot="1">
+    <row r="34" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -1239,18 +1297,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D35" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="6" t="s">
@@ -1266,12 +1324,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -1293,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16" thickBot="1">
+    <row r="37" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>8</v>
       </c>
@@ -1301,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D37" s="10">
         <v>0</v>
@@ -1320,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1331,7 +1389,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -1339,20 +1397,20 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="19" t="s">
         <v>19</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="2">
         <f>SUMPRODUCT(B35:D37,B17:D19)</f>
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1366,7 +1424,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1377,11 +1435,11 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1">
-      <c r="A42" s="19" t="s">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="19"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1390,7 +1448,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1401,12 +1459,12 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1">
-      <c r="A44" s="19" t="s">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1414,55 +1472,55 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" s="25" customFormat="1">
-      <c r="A45" s="23" t="s">
+    <row r="45" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="21">
         <f>SUMPRODUCT(B35:D35,B17:D17)</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="21">
         <f>B23</f>
-        <v>170</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-    </row>
-    <row r="46" spans="1:9" s="25" customFormat="1">
-      <c r="A46" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+    </row>
+    <row r="46" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B46" s="21">
         <f>SUMPRODUCT(B36:D36,B18:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="21">
         <f>B24</f>
         <v>100</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="2">
         <f>SUMPRODUCT(B37:D37,B19:D19)</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>23</v>
@@ -1477,7 +1535,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1488,12 +1546,12 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -1501,13 +1559,13 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="2">
         <f>SUM(B35:B37)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>23</v>
@@ -1522,13 +1580,13 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="2">
         <f>SUM(C35:C37)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>23</v>
@@ -1543,13 +1601,13 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="2">
         <f>SUM(D35:D37)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>23</v>
@@ -1575,6 +1633,7 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A42:B42"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
